--- a/biology/Zoologie/Oskar_Boettger/Oskar_Boettger.xlsx
+++ b/biology/Zoologie/Oskar_Boettger/Oskar_Boettger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oskar Boettger (ou Oskar Böttger) est un zoologiste prussien, né le 31 mars 1844 à Francfort et mort le 25 septembre 1910 dans cette même ville.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Oskar Boettger entre à l’université de Francfort en 1863 puis à l’école des mines de Freiberg dans la Saxe. Il compte devenir ingénieur des mines, mais les désordres politiques que connaît alors l’Allemagne l’empêchent de trouver de travail dans cette branche. Il reprend alors ses études à l’université de Wurtzbourg et obtient son doctorat en 1869 en soutenant une thèse de paléontologie, discipline qui le passionne depuis l’enfance.
 Il devient paléontologue en 1870 au Muséum Senckenberg de Francfort-sur-le-Main, puis conservateur du département herpétologique en 1875. Mais ses fonctions sont bénévoles, pour subvenir à ses besoins, il enseigne à Offenbach puis à Francfort.
